--- a/a.xlsx
+++ b/a.xlsx
@@ -26,12 +26,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000FF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,11 +425,4207 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="60" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>abcdefg</t>
+      <c r="A1" t="n">
+        <v>0.02068012987561363</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.8203676958030385</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.2914877827014202</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0002287420964331988</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.3556261895403101</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.4895443698660319</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.36080910999711</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.5207655524482014</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.7050399871695671</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.1435833036199452</v>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>愀腣姱濬蝿钃绥缑瀎螊</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.379028252827562</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9639591435147028</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6639196687566112</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3674073801867874</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.437758928971436</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.006099190413222377</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2750747185819411</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.157186623395872</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.384300300347904</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6145463970958963</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>胂镭宑舢橱戇锈藻疼慞</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.4628418709150554</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8551214558062298</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1640897102084992</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05842841294651802</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5610652302349887</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.27786219240143</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1736981292855813</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5771606047445194</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2385594130667849</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5560505671416723</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>育麊殾繳罷毸勼鏯賈箑</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.2063500499447177</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1330221972941751</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4382043721119731</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9719280719817029</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8225577267586093</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8444815197507258</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6878316109152907</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.742667462471101</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.256223410449918</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3244099362070495</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>满溕瑙咱丢焆薽巋措詫</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.6963144080837786</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8082793369362552</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3641591845983281</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8149068685853317</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8225539343816257</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2364397290562487</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6692557967867035</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3627159556662432</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5089780902431668</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5065479218177472</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>七坾駀躟界鍧捽庚敿谤</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.640265397086669</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.08885490565052956</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6843961007259534</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9439262633503992</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9519873771824264</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3942414650918399</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.304714126845811</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5029506925922189</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5033030857272558</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3189438611162728</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>蛝咼变蓟憟具卌种沈震</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9760506064176524</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1225948293487757</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8819999787609565</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9730616078727319</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0693437406732047</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3991409867685575</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7814408119158136</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4113093595431635</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8856958208792522</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3597763490331946</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>仟餧君唎艫肰酡滿棆镤</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.6704122539044409</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6136008400415067</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1028727334957267</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4601730983759474</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9030583968059538</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6523876263636559</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9405058721583697</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4225047038595201</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4191692724386632</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2451151231417041</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>焣惢臖榭炓詚篳癇邛祁</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.6820156467375001</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7408816853125413</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4421235716663544</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.893175355948264</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2160876972539137</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4633950007149459</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8693950468021232</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1122074152923639</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9442664226132234</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2193123368245835</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>黜鷳痒珞誦引相渧偯芀</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.3119749005389379</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6080767626177637</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4590188008711131</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8148921964673317</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5881005469364696</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9367794263031143</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1942884494493892</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.005055197940059153</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2427661090679429</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7007935938961127</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>颋躖鐚圜岝薞梞俢竄飾</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.5920585518160361</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.661352380496894</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.190716609673832</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9731260658697278</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3750844854738634</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1652233931677128</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5673948347834983</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3724947197131858</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2412672584864618</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6929422602672876</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>顨篐尣鏟嚝稭圯儋軙卅</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.2532340893276498</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2400502701399851</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7627856606004598</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.07673169993598883</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9988857446589945</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9802355459027111</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6059579494364671</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3092593973259719</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7037280452383113</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5448991131689453</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>飭嶌炡潽髊辙谹蒗臙歫</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3030238341255619</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4879826729603638</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4148807799599944</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1298936279462664</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.766564451400873</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1986965944956487</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03944558591617753</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8315279481452881</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7887405744159158</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7744826524661914</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>仃賕爆鱸琨会淩亊焥肟</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.07972045863028099</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.188937225459801</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8209224432626949</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.09102902375371025</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4632438452393682</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4992839156808445</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4716193845978089</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8201414370283924</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1411222681084773</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3118569659684912</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>檬鏐昷擗捍妏瘧莗蕮銼</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.2002218501879927</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9086145690475809</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6381856276360663</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3649907865371314</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4515735157700455</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8604235779373716</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7866610135775645</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5183704530481785</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3745239714225427</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.2943996794186478</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>妃馸敄躛蜻唏瑌佱踟巻</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.5716282689111569</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.709896323768988</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.08851476119263313</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3012183384410153</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8123849379737937</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8045945570824022</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6345752749761864</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7309772218987777</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9840178298980141</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.160510493903957</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>澍谛騽蓫術讟廭聳礡汧</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.01112339204609269</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9740975902959016</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5255387644953341</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5581149562809458</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5150518581520294</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2624518409299351</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.06263535399459319</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2421267159627892</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1032621367898188</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.4592666547074685</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>脯翷颪飝珐鐚巙獸涋爓</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.1137175818587255</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2060289243094331</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9417500761899539</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9929476131896747</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7990704849100509</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9261324229356482</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3425012058838139</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2944705311360443</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2739601138873062</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1391990958753341</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>寇剝髭憹及硴妔蓝瀰夐</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.0644296686987893</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1235937205161082</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.008360054666721961</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7221097847270314</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1972474938349216</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4221604337139512</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2091724191008365</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.06086275639192762</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.05133057845361633</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7157440942285433</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>卟怽耝轻閬亪妿磚蕁哌</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.2605468034504096</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.807768759547661</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3334353697986661</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.2400593786919701</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2005115859289198</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3178211894384751</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5647261629087853</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2519447822409663</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.7446950460534117</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2877730893919126</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>给鴿锠矺癱棷媁摎及畁</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.6100058893481048</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8729999823974661</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001092417962713865</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9167879629486709</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7607145068770761</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3549049961309458</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1425285176227804</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9582360810517724</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7393477983974451</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4485469178567926</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>闧椋询瓣工欿镚啻樬埡</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.8781140437718816</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5239657359021683</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3463218039667133</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7816448878676254</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6792517759134816</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1319276327965579</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1531724044453149</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5306811460132929</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8374955928774763</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9440766816500227</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>籺籙嶘窧豛評淮鼲逤顇</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.9213203786562438</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.484241552559401</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8765942028629129</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5113417661450794</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1576090051790964</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6719755001131247</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4478103459728029</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2453468038818579</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9123892948092066</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6039706774816964</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>襤晁烡栉川祉敽隃垰妡</t>
+        </is>
+      </c>
+      <c r="L23" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.3353930362942283</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1189369152972536</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1539892912244283</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6827983955479494</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9750149659849957</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5196191893685854</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2209626265945841</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6605102070633709</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3528078413703953</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0206822547397143</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>郭礢睛汄瘟僱鹀犣钹価</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.5721840094900341</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7140576117114394</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9290514830894798</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1075669997874591</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1567478826334041</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4362885322926964</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7632813809365224</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.04952561851124992</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.25532096295628</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3862456681646302</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>袱鲔湉龡縨狥鄥畤喓宻</t>
+        </is>
+      </c>
+      <c r="L25" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.08234608676679545</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8309251628155162</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.97486889631969</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9098199765802897</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7567366332123147</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.07830871117246296</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.723865072758762</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8446350725898578</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3658579312587243</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8608765303312572</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>騤劕谥勹曢矕关蹭巤晃</t>
+        </is>
+      </c>
+      <c r="L26" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.03272477320163769</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9040817540018562</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9793948397649215</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7434353025428521</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.09109640357989357</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.07997118899734967</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9456171363582571</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.07153933272353852</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8951935920279982</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.2268446054953824</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>燡塖滗蔹駄珖曈槠佦胭</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1051266524021466</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3568976905849395</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.391891824935714</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6872267643134876</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7114757716707879</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9759676005489338</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2868012260149305</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.3381567968269689</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9613335913515442</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.7014796392136433</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>累穌浪淖匡鲼踻俙茲駘</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1180370602330887</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2927381169290655</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4666981012792973</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8897419035633173</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9388430186999506</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.514637772095757</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.7393583633004299</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1988819224976844</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2470459755578792</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9948253111125049</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>皣霻蒵姎癳嘥捸齵嚽彈</t>
+        </is>
+      </c>
+      <c r="L29" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.3059391209701958</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.526957741985269</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2072461954606956</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2701067937101134</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2954790344257318</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4365537140405134</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1728708170751136</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5536703629483928</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.3846040270840462</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0006287311606619772</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>璡曄擿涝勆承苔斳嗗辮</t>
+        </is>
+      </c>
+      <c r="L30" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.1004740138189908</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4179674989519055</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1804675476229737</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8804425426628864</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9851779365211313</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8782645670201604</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01629121174929671</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.05345438412891046</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.4102376320464687</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.05138157693666812</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>銺権鐝猆荄厦峎伨烑夲</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.9149404348798367</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6109245124746419</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.04472087191215235</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2903304738246727</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7240326321210735</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6758515605379669</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6252417958811383</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8509166795414191</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.4694020299215903</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5902184958978011</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>燪傈滖柜糹疩崅癭撯縭</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.1809224311731412</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9531312368525771</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3227028559081561</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6554583095318158</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.596399119787665</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.804161432330262</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3891687754524746</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5095294073848512</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.5625368720255096</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5173160323032062</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>桚貓庘豗韖昬蟞媑愤曂</t>
+        </is>
+      </c>
+      <c r="L33" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.3406935263940621</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6906173925237336</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9332435655598762</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8927228126558048</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3422575570810631</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7872860536078146</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6998532217625636</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.4054442890332938</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.629336751184125</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.7357103131151744</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>葛嵃見長卯亟苧紑犫襻</t>
+        </is>
+      </c>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.7259071977309968</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5636076260202543</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5191952135078708</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.759547194239068</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9130880113336568</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.553406119546501</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.08710541191590826</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6972296029611713</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.6506031439887133</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.6182879836332688</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>凱碤褡狈哘勼焋惌媩态</t>
+        </is>
+      </c>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.1166625186691347</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.100524370120709</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7417596010788174</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.739896977923384</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8017329280293078</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02707227546028901</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.4854181752308009</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9469751805335364</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.4298606788288225</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1715119213481758</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>嚠罜軚菦蛻蔝慒詼仒繖</t>
+        </is>
+      </c>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.2220041899432941</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6046680933237588</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.63296559980361</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.168998992968231</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8098296094657591</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8534677673621379</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.00730929897573851</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5624477959128793</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.777587649192388</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7444058441133414</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>攳蠪仓薟頄軆鈱瑉纵攊</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.8222250579203068</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.06322741031623391</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8777363242873646</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9625049577804612</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3241408938837589</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7341489714851027</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7892205486030256</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.1055174329874438</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9238936939817967</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.3316502990769241</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>媾辴蒭黬釻舅撄霫錛齖</t>
+        </is>
+      </c>
+      <c r="L38" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.6281260985018516</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.590044492341939</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6503334204171735</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7310606527483432</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8464437089241339</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1602882430552854</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5552598903599454</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8497695616656682</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.4048014466477394</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.6578274125767452</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>鈔荙溳喍慃雽嶪紈拁灭</t>
+        </is>
+      </c>
+      <c r="L39" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.1737082571728622</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7451780312641987</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4574073651386922</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3695386876510915</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9462013752535092</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.4888664975862235</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.2263932276795108</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.4974594806813196</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.5506172585978015</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3206700116837899</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>蹰掀蓄頒笷构棏凖簶熯</t>
+        </is>
+      </c>
+      <c r="L40" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9619499769571432</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4226537931193797</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5472746854335346</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5037006206227458</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9141299115898185</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6717544364198409</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.10148659240466</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5123747015537078</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3649221982076977</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8692098540237382</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>詷蚍誃褫摡氁襟繨匛喁</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.5788071312649058</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8991834091410841</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1488333086928886</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.03695422027043904</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3845625353211009</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5328442031809466</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.672586443239012</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.468565155253009</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.498107782574619</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.2476799584221248</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>袒啋伉镟晇趒枑阠濡蹙</t>
+        </is>
+      </c>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.6884919849146094</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1240767894977157</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6635524625947939</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6889186155665725</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7847814107736646</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.312763253117215</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.338075504042349</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.3132905789062941</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6074415467819131</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6085581061408775</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>嵷蟤蘽昆緾矡婎鱁歪圠</t>
+        </is>
+      </c>
+      <c r="L43" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.2183788708811164</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1578912910161374</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.691443387905292</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1217391073624048</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9144180666420522</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.12334473742942</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3278853478435643</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.4617726911623635</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6839848344128474</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4454613348968</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>呄藆媾滕賿栺焤囕攎晋</t>
+        </is>
+      </c>
+      <c r="L44" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.8798891563286552</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6533211368287515</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9372181215157711</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.07547959156241058</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8618286211220771</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6174914350743664</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.386066135161101</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5512442881024963</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5524669918542731</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.7692443544449711</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>牴烣衴窤悦钞曩熺鄌宇</t>
+        </is>
+      </c>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.9495974786762281</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.08151280940145289</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9761956238634075</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.3198230632907741</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8581819175039206</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8533215091896825</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.7211458032945849</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9775895625397557</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.3601079109963791</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9795614156440198</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>赼趕醸牸鳝彵缡鯋纛诡</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.9473558252022715</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3146662958780978</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8472792421555559</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.6119255287989501</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.4522143584289513</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1850489367452747</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.7564771124979585</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8313260109567153</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.7899442114888626</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.1343405591001516</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>眇郴縀鷴貸弬鳸軷赠鶺</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.613673301794789</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9191819627153998</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1379617959501672</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9503853119867414</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5899841169248967</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.3204285055505168</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1426390153025784</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9691906221608455</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7123738728717264</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.7115368602749241</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>蟻亯媌愿瑞忆瀧恁菞冰</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.300034880093287</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.04351851358974057</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.2441726885163744</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.1791201732747487</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7885812546959331</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.2614178452285146</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.8408430682912219</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.898743920892782</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.1021214454378977</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.6500088577947603</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>踆徳趲孳喛郪喳搷繝觉</t>
+        </is>
+      </c>
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.8852061311787788</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1249229981274252</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.08900273268861614</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6291201994158331</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.4074652966891674</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.6197107248005117</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2365627898046184</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.3449089680350498</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.4752938547016162</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2496194029779094</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>庺匝癰纬蔕熍巭匱褧儼</t>
+        </is>
+      </c>
+      <c r="L50" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.05850126026342595</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.02120808188813272</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4361743839802796</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4663049466906284</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5082234993742369</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5203859150597794</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1871170682687876</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.4931829461340822</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9933691160731049</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.4856218804964665</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>迶闗搵鸿龌墱噂媺鸐囈</t>
+        </is>
+      </c>
+      <c r="L51" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.2278731989915815</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.07199575124941227</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.6183628159539035</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.1438129267565105</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0825870811374515</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.7096696528800501</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.1958418166567996</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8870048084459841</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.7231963185857084</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.2189107763376835</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>翯铙襳簝髰羱浾搈鴪旷</t>
+        </is>
+      </c>
+      <c r="L52" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.7276058770789552</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1617431894239396</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.4686088058010959</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2221719912731829</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.6320322251108841</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2293262921134096</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.08106990469348607</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.3928088287220421</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.7171187702046969</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.3211440854616581</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>馲鹂橵媟玗籂裀蹌昐酧</t>
+        </is>
+      </c>
+      <c r="L53" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.7703725034011639</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6139482869064314</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.231166399264726</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.37959106899676</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5484300345997114</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.3105801697151479</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.09450411308755358</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9438158453290142</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.01714683711581988</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.03476795231598984</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>蘭镃纴冎邽点蝒韝悲靶</t>
+        </is>
+      </c>
+      <c r="L54" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.4847935560550125</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2483958434148598</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.04820363181141518</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.697185623586273</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.01376809514692157</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.7056774129643676</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.8327304205421835</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.3512852590524487</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.1176822511028405</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.2620065526391858</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>剌卨柒得勦璙輥打麥拍</t>
+        </is>
+      </c>
+      <c r="L55" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.3675655444287834</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4546549557954985</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2443875160499707</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.196162296667746</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7167391976856777</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3615252345253894</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.7640914141999861</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.6630566629798097</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.4290953875692275</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.05291697559075892</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>剕旝蠓膢胇熮鶩轂厭讉</t>
+        </is>
+      </c>
+      <c r="L56" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.5346785829783678</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.7341438203989906</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4020665483988669</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.6817448038030681</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7739200249499311</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.3649928787312084</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.5462765742093743</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.55612288231419</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.7788486788317839</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0488855937761643</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>餗鵷虱萼磟躇禠殕法榢</t>
+        </is>
+      </c>
+      <c r="L57" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.4369836417626184</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.6318782621976516</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1114526026399479</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.6756679799776553</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2985257828469123</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.3409641280245213</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.3076390594632242</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.4003967407613311</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.2458244072156139</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9927080014217013</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>曠蛘荣鄦慄縣炏焻爆瘤</t>
+        </is>
+      </c>
+      <c r="L58" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.7008121761609877</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8072092179033528</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.4671701380832582</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.6211263607739529</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9554334695082206</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1185175699317811</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.4913298688957574</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.7440851338844445</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.1482001463779298</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.1006171050425769</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>黗荢爂礶猿蹋猿箞暰楎</t>
+        </is>
+      </c>
+      <c r="L59" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.8808823145983661</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.09707138095124557</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01177324845262728</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9584511520098213</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3280879262394757</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9297236102686224</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.1094950904271473</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.7772176905489879</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1221754387113743</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.338021224485114</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>娣羀袙庡狲鱵相懘侁藤</t>
+        </is>
+      </c>
+      <c r="L60" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.1093738390917459</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3826704425136666</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1979483185870766</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9762581730896859</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.4850596865203571</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0458782348731831</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.4288898963866004</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.7298072175917159</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.1855557878194544</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4373877522611935</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>嶆躙茔襸韽坍冓募热郃</t>
+        </is>
+      </c>
+      <c r="L61" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.7547668939154676</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9468186430824361</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9338382789814916</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.1232749592952544</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2866136413879941</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9746337163526588</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.7750622092559929</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.6756285982074175</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.7786815131952861</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.9611441534692323</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>驔佖艓堣幖碃撜肑出熣</t>
+        </is>
+      </c>
+      <c r="L62" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.7990135880025554</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5821854718628576</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1730991997525141</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.4435850635453402</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1187522667580287</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.4076072845978604</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.3392385676985789</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.4764708304897572</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.4679271006288054</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.7518143493876855</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>羏鎚砫漃幺臎蓖席鵵鐰</t>
+        </is>
+      </c>
+      <c r="L63" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.2796118019496424</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8161242668120117</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.4954777669674028</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.839474279099941</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9560927553957914</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.2134904720203699</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.380762072767612</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.2909797252719044</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8437248917338764</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.712360709601493</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>抩拕咗銴捙鈶峮凫迟柠</t>
+        </is>
+      </c>
+      <c r="L64" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.0005789932707038759</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4827986288226866</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.2900410234357186</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3728552398999905</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.05174436369970437</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.02714488035389095</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.790594490219875</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.1588800397339157</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.5641573213899614</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.2606738432112715</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>鷱顴榥驜盱庩芎聭剻龚</t>
+        </is>
+      </c>
+      <c r="L65" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.6847365491749516</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5432192443941105</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5151536523899345</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1651729649572082</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5780677592646652</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9854898443732549</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.260804102585696</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.779559999104899</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.8113346522401635</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.7795088964903121</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>縓乒蜼曨厅蠀猀驇鴈耣</t>
+        </is>
+      </c>
+      <c r="L66" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.3498036453604517</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4559440012116418</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5291095575837668</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.3449839663875134</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.3215797145384617</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.5925128946377624</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.6788763937839709</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.8309613865043995</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.1527744685159567</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.04134957691792651</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>胿隲鸂尲輟鐿嘫謑篍鬈</t>
+        </is>
+      </c>
+      <c r="L67" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.3429175579710459</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1188360235774826</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.06077696834918611</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2804514991258653</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.1277490389240922</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0784584152890887</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.4932094841323361</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.7395212459976448</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.6370015461580903</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.2422033388767318</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>搀窗銙埙磦剺鶄倢尲咝</t>
+        </is>
+      </c>
+      <c r="L68" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.6291115377165085</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1668065353274699</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.2111115122097077</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.3640709638667827</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0868521738383915</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.810523101297058</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.7505765836980144</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.2122743280591768</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.04792604300608494</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5992506667456612</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>繭嘚皍踢鞁卢饗毟拁犅</t>
+        </is>
+      </c>
+      <c r="L69" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.8026604464252353</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6258257217874036</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1766268997163616</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.4109809866883065</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.3861713201030417</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.2056740825007951</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.4119545904392978</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.06734025391442933</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.6074869388904132</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.8527081456245911</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>躑儱霢怐左纣餟伟欩僪</t>
+        </is>
+      </c>
+      <c r="L70" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.401995676708732</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.6714617311555708</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9299487036960782</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5358445679735789</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5870758620658665</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6355340948023994</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.7941635199627365</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.4905259654795658</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.8785153321140524</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.6988070265275776</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>絣褄市鵢殉荨謘鶱诤洍</t>
+        </is>
+      </c>
+      <c r="L71" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.1099392767202594</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9576022252473905</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.2923392210151075</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.6847526021815987</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9629293480783691</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5727495974672875</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.5333411018288665</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.6099689189598577</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.4360147916929212</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.9410921913401983</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>攁抏鈶榌薿狪糙狚殧埠</t>
+        </is>
+      </c>
+      <c r="L72" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.08613746595249028</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9367206947802333</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6465368397001785</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9786121422922297</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.1156194710199424</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.03379772553201599</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.4737259553884949</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.8959818492052825</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.9412824251898662</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.7361398636690966</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>盄鴭漪瓠吤襳曺氍葝郋</t>
+        </is>
+      </c>
+      <c r="L73" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.1294161293304975</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.02059837182256752</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.4589525840559338</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9569313858680968</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.2948003650864014</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.2861146906177063</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.5459410391141626</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.1798321534240295</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.6220415334551598</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.4378081060865677</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>図誝餢蓒琪祃炀渵蹿毳</t>
+        </is>
+      </c>
+      <c r="L74" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.8575764041022044</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1307855933462128</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.7977617843119327</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.1120435406904469</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.1623418549115792</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.5457819391365401</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.8482544230974831</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.900979238343756</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.7545132463539939</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.9084971693785621</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>誖迴偧瑊崼摡噺瀴峧鹪</t>
+        </is>
+      </c>
+      <c r="L75" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.5139485010007019</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6123463496621935</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.02085239169041531</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9077942152103453</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.08200157542672659</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9133359174389689</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.7798533698664416</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.5360515576744898</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.2943337677095222</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.6663596616794948</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>窈巯髛粱徵惓賯尨櫺討</t>
+        </is>
+      </c>
+      <c r="L76" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.2373029586791232</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3556117204709125</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.4620116627010583</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5851951987686351</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.9359904347037101</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.1410865510229977</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.9202018107397713</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.3936700189549451</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.4193660313849931</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.3865343845516755</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>匍睤笃愌臹螲娛曙僘姝</t>
+        </is>
+      </c>
+      <c r="L77" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.3563524706003837</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5135247547233425</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8180163780845575</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.5551923119217718</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.261828603501902</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.2944171672266023</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.9726589066909513</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.5020270722009209</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.7595784965114327</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.09669903282855563</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>釫钁魡盕擯腠裨鳈貦歕</t>
+        </is>
+      </c>
+      <c r="L78" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.8161876843018621</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4592648478854583</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.2911694896269972</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.3610540163589914</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.2393527887818581</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.7733222874744705</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.3309749931410078</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.3957108392802344</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.5101500128842874</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.4015075043311204</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>潆鍥锭桳岝钧铂錌讃慯</t>
+        </is>
+      </c>
+      <c r="L79" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.3766580373306181</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7774896630784996</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.537013296170862</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9083831922742254</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4054258553942713</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.3949481970273675</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.6937977665676156</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.1184569615739641</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.9978375229271852</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.6457852812765779</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>燀畫瑏苌暀塐愚螮皊眭</t>
+        </is>
+      </c>
+      <c r="L80" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.1638652894824391</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.862306102172425</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.2033175955789267</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.8759354975008853</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.3890974099010648</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.7236114548432578</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.5315777653453441</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.5266776171933029</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9086230443940233</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5488585831607874</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>陃艝妭棱沄嫟糩獰蝕雚</t>
+        </is>
+      </c>
+      <c r="L81" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.7542930743246544</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.2702124890431705</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5905565916749383</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.7463262620498349</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.717840038832358</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9398860762723484</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.1769730458542336</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.8019284117415046</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.7550325580289821</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.3310459316599279</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>旋阙詓熽忚蓠枩締箹嵟</t>
+        </is>
+      </c>
+      <c r="L82" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.8095066348827725</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.6511166849000669</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.6043721189669283</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1266075518269073</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.582071940575834</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.6754177842170198</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.4838719787351378</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.8057622749034806</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.8262868157429303</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9158740645080196</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>韜龵攡糈螦齈趑廯厈瑹</t>
+        </is>
+      </c>
+      <c r="L83" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.8526497959898806</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.447342101996862</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.7835303019972664</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.6151442662164673</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.8776116460570423</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.3851001347667964</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.837267277051895</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8650636802982841</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.02833167644325596</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.8322747923894628</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>嬜羵噡劂所邬腹癏勽嶗</t>
+        </is>
+      </c>
+      <c r="L84" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.140129783505114</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5182674141374567</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5950709414481153</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2666864836094817</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5861750032079592</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.6267012111563425</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.08130288267455665</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.8946650127274752</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.1380934125764314</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.1400593313916113</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>嫇纉舮飸樢軎潨瓯嫉粓</t>
+        </is>
+      </c>
+      <c r="L85" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.7212808392759726</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1261670643092041</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4966060776685586</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.7938097080722418</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7231633888998139</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.2175414020534703</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.9077879544207011</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.4360321785732786</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.7878865678429186</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.7295131435148265</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>孳撗鄝啉癒鱞喿眐氦硂</t>
+        </is>
+      </c>
+      <c r="L86" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.5735052138958269</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.884739534436128</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.5642621373474445</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.3147996861957498</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.2398541188921282</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.2459186116755249</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.959599061669822</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.8894887364758332</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.7024587389955403</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9383482444658438</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>禸磞溦碉緟緞灱绻靝韍</t>
+        </is>
+      </c>
+      <c r="L87" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.06711877508075292</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6904498302155353</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7658394612101238</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.149182422249888</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.01852562075276809</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.8361996875079655</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.9384847991012784</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.3970696593332605</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.9714975983934492</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.8472507940179718</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>孚力膃寉蛪鄦駷绎頹晴</t>
+        </is>
+      </c>
+      <c r="L88" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.383884671168487</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6445299992110189</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1722562326643472</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.07803406578498961</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7100220396915295</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.8892393062826714</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.4952120809309508</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.1109845443512677</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9745196280792364</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.7152135824930242</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>惄燠垃潰聩綹嗹脝孹锲</t>
+        </is>
+      </c>
+      <c r="L89" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.818637514269337</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.1336291815642932</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.2268710420385655</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.05733667814160814</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.3220726040635249</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.5721955007353413</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.1913761047937119</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.4235943044593092</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.3015473078727572</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.9605772653276035</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>赅褡鮆覚泜従翽轝骼浘</t>
+        </is>
+      </c>
+      <c r="L90" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.8367418286780594</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4662191335868938</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.481609092576517</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.544565446286004</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.3268554623722171</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.06007323531429454</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.2108694585623208</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.1055855741875743</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.6790540711609919</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.9559581525317355</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>踖繋偏梷璱掔禌贐悉敲</t>
+        </is>
+      </c>
+      <c r="L91" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.3882970279196285</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6930920178375938</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.06486322562789837</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.6831773263445594</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5062100547854775</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.7383555228443227</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.2745412143200002</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.6269683285023775</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.05303932076458262</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.1494620598344302</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>揶晚哮鐷检騩战蟁糆震</t>
+        </is>
+      </c>
+      <c r="L92" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.6495447999461567</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.06003114289786682</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.06572372879017341</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7916640609463934</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8487294589461341</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.01869783637857569</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.2924440561959315</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.9112239270580864</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.4965970159578896</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.6959640540750462</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>鼷榍橊恛禝牾琐釟瞢尜</t>
+        </is>
+      </c>
+      <c r="L93" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.2104446040324341</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6429115009468673</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.5699309176809896</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.1035512125770937</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.6557020985545086</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.3576337285626465</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.6630698996924843</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.7776812774716393</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.7040740765348651</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.527106004719774</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>腠嚁葤躷犫娸歚肿综迷</t>
+        </is>
+      </c>
+      <c r="L94" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.2302020588347835</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8500603670158207</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.1034857296108215</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3858461691741898</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.005030859389291265</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.3168068135500749</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.1348202404343876</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.2742740164697282</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.07642921922102863</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.3400064862424198</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>揓縈汕鋑艠瑜糰賖柚騧</t>
+        </is>
+      </c>
+      <c r="L95" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.509996358491573</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5800285068443936</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.007790482141561417</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.2588303551131602</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.5980151702115106</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.7574974712635285</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.2017243804250399</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.3091425979459166</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.5834392246435647</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.04736325217144066</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>霷蚗勁豍昖犿麤搃锠筸</t>
+        </is>
+      </c>
+      <c r="L96" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.4911811281388991</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.2048511260625294</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.3841500705122394</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.8719171349607625</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.4733645152520656</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9987938090865248</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.9885721379894779</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.1527414254553436</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.8872291792272445</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.3050860930367757</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>鐺崘帰蘴蛿摒猊仼匸饶</t>
+        </is>
+      </c>
+      <c r="L97" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.7059014941727528</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.4590810640208928</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.2089950829480578</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.7285594762265206</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.3001085175220268</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.006463686769909827</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.1748495723152533</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.5056309928946808</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.3009612499764101</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.1622343108004827</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>脉锔兒劧萲杍竣阵悈鐌</t>
+        </is>
+      </c>
+      <c r="L98" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.5401898673630936</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.7240060457195406</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.4671305749000954</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.8801534314976547</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0976235176962994</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.8119399836254971</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.7497565287205995</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.5348156106154264</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.1671715077230244</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.701953447444866</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>棸糒厁逵郢紜怌蛉嶄耠</t>
+        </is>
+      </c>
+      <c r="L99" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.6794738918128601</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3916784725330138</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.6235710599916318</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.5324994298189288</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.8638209608183932</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.2807906703426158</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.2662406364093024</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.7173150728914038</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.2170391125280632</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.7711027225627305</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>龿搼懗泼損誠較軲瓬倭</t>
+        </is>
+      </c>
+      <c r="L100" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
         </is>
       </c>
     </row>
